--- a/BA_Rohdaten_Uebersicht.xlsx
+++ b/BA_Rohdaten_Uebersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bened\Desktop\HTW\BA\Bachelorarbeit_589223_Implementierung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0653FB8-E8AC-49FE-8672-EE4377AA4482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAC84AF-DB39-4571-843E-43F00C23A8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="5" r:id="rId1"/>
@@ -18,18 +18,18 @@
     <sheet name="Tabelle3" sheetId="7" r:id="rId3"/>
     <sheet name="Rohdaten_Komplett" sheetId="1" r:id="rId4"/>
     <sheet name="Check_Scores" sheetId="2" r:id="rId5"/>
-    <sheet name="Check_Technik" sheetId="3" r:id="rId6"/>
-    <sheet name="Nur_Fehler" sheetId="4" r:id="rId7"/>
+    <sheet name="Nur_Fehler" sheetId="4" r:id="rId6"/>
+    <sheet name="Check_Technik" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2322" uniqueCount="392">
   <si>
     <t>id</t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>Mittelwert von tps_write</t>
+  </si>
+  <si>
+    <t>Der Ball muss von der Marke Wilson sein, zu dem Preis habe ich keine Informationen.</t>
   </si>
 </sst>
 </file>
@@ -1673,9 +1676,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1683,9 +1683,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1693,31 +1698,10 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
+      <border outline="0">
+        <top style="thin">
           <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
       </border>
     </dxf>
     <dxf>
@@ -1725,13 +1709,6 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -1764,16 +1741,44 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <top style="thin">
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color auto="1"/>
-        </top>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -7401,7 +7406,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D4D5817-47D5-4AC7-8B51-A654550BAEA0}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9D4D5817-47D5-4AC7-8B51-A654550BAEA0}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:U10" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -7770,7 +7775,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7858A12D-C76D-459E-BC5D-648D06951F76}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7858A12D-C76D-459E-BC5D-648D06951F76}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:F86" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField axis="axisRow" showAll="0">
@@ -8174,7 +8179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AD66664-5A2E-4490-94BE-E4BA84A670A2}" name="PivotTable3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3AD66664-5A2E-4490-94BE-E4BA84A670A2}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Werte" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:E8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="15">
     <pivotField showAll="0"/>
@@ -8257,7 +8262,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E778C972-537F-4AE2-B568-4BDB7AF0C8DD}" name="Rohdaten" displayName="Rohdaten" ref="A1:O309" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E778C972-537F-4AE2-B568-4BDB7AF0C8DD}" name="Rohdaten" displayName="Rohdaten" ref="A1:O309" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="A1:O309" xr:uid="{E778C972-537F-4AE2-B568-4BDB7AF0C8DD}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{156BCF34-A25F-4BB4-A5D9-424705E22EC8}" name="id"/>
@@ -8281,7 +8286,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{511F8362-4D19-4FD3-8EE4-C9A033CC9A48}" name="FehlerTabelle" displayName="FehlerTabelle" ref="A1:G74" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{511F8362-4D19-4FD3-8EE4-C9A033CC9A48}" name="FehlerTabelle" displayName="FehlerTabelle" ref="A1:G74" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="A1:G74" xr:uid="{511F8362-4D19-4FD3-8EE4-C9A033CC9A48}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
     <sortCondition ref="A1:A74"/>
@@ -8616,7 +8621,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8647,7 +8652,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B5" t="s">
@@ -8700,327 +8705,327 @@
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>15.5</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>136</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>1277.9411764705883</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>23.964764705882352</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>10.5</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>71.352941176470594</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>1247.1176470588234</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>5.982764705882353</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>12.5</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>61.235294117647058</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>1281</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>3.8490588235294116</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <v>15.5</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <v>105.17647058823529</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <v>1281</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <v>11.846823529411767</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
         <v>54</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6">
         <v>93.441176470588232</v>
       </c>
-      <c r="T6" s="6">
+      <c r="T6">
         <v>1271.7647058823529</v>
       </c>
-      <c r="U6" s="6">
+      <c r="U6">
         <v>11.410852941176467</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>20.5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>1278.6666666666667</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>22.007714285714286</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>20.5</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>16</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>1252.8095238095239</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>4.9793333333333338</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>21</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <v>9.1428571428571423</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>1289.047619047619</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>3.1663809523809525</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>21</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>9.0952380952380949</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>1289.047619047619</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>7.4378095238095261</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>83</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <v>10.30952380952381</v>
       </c>
-      <c r="T7" s="6">
+      <c r="T7">
         <v>1277.3928571428571</v>
       </c>
-      <c r="U7" s="6">
+      <c r="U7">
         <v>9.3978095238095207</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>20</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>106.625</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>1718.3333333333333</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>30.434999999999999</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>10</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>60.916666666666664</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>1676.3333333333333</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>5.769916666666667</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>16.5</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>68.375</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>1706.125</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>2.7008333333333332</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>21</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>116</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>1706.125</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>12.202291666666666</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
         <v>67.5</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8">
         <v>87.979166666666671</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8">
         <v>1701.7291666666667</v>
       </c>
-      <c r="U8" s="6">
+      <c r="U8">
         <v>12.777010416666661</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>12</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>84.333333333333329</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>2029.3333333333333</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>20.439333333333334</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>6</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>90</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>1973.5333333333333</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>6.0813333333333333</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>8</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <v>76.400000000000006</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>2000.3333333333333</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>2.0867999999999993</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>13</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>95.666666666666671</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>2000.3333333333333</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>11.620200000000001</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
         <v>39</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9">
         <v>86.6</v>
       </c>
-      <c r="T9" s="6">
+      <c r="T9">
         <v>2000.8833333333334</v>
       </c>
-      <c r="U9" s="6">
+      <c r="U9">
         <v>10.056916666666671</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>68</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>81.597402597402592</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>1561.7792207792209</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>24.760948051948048</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>47</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>56.636363636363633</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>1523.9610389610389</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>5.6619610389610386</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>58</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <v>52.20779220779221</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>1555.8311688311687</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>2.9616883116883113</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>70.5</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>80.493506493506487</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>1555.8311688311687</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>10.711012987012991</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
         <v>243.5</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10">
         <v>67.733766233766232</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10">
         <v>1549.3506493506493</v>
       </c>
-      <c r="U10" s="6">
+      <c r="U10">
         <v>11.023902597402595</v>
       </c>
     </row>
@@ -9033,7 +9038,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909FADB4-5D6F-45E9-B772-7C49A86DA0F8}">
   <dimension ref="A3:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -9048,15 +9053,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B4" t="s">
@@ -9076,1642 +9081,1642 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>15.5</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>10.5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>12.5</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>15.5</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+      <c r="A6" s="5">
         <v>101</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+      <c r="A7" s="5">
         <v>105</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+      <c r="A8" s="5">
         <v>106</v>
       </c>
-      <c r="B8" s="6">
-        <v>1</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+      <c r="A9" s="5">
         <v>201</v>
       </c>
-      <c r="B9" s="6">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+      <c r="A10" s="5">
         <v>202</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>0.5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>0.5</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+      <c r="A11" s="5">
         <v>205</v>
       </c>
-      <c r="B11" s="6">
-        <v>1</v>
-      </c>
-      <c r="C11" s="6">
-        <v>1</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+      <c r="A12" s="5">
         <v>306</v>
       </c>
-      <c r="B12" s="6">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+      <c r="A13" s="5">
         <v>308</v>
       </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+      <c r="A14" s="5">
         <v>401</v>
       </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+      <c r="A15" s="5">
         <v>702</v>
       </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>0</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>0.5</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+      <c r="A16" s="5">
         <v>703</v>
       </c>
-      <c r="B16" s="6">
-        <v>1</v>
-      </c>
-      <c r="C16" s="6">
-        <v>1</v>
-      </c>
-      <c r="D16" s="6">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+      <c r="A17" s="5">
         <v>1101</v>
       </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>0</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+      <c r="A18" s="5">
         <v>1102</v>
       </c>
-      <c r="B18" s="6">
-        <v>1</v>
-      </c>
-      <c r="C18" s="6">
-        <v>1</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+      <c r="A19" s="5">
         <v>1108</v>
       </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+      <c r="A20" s="5">
         <v>1201</v>
       </c>
-      <c r="B20" s="6">
-        <v>1</v>
-      </c>
-      <c r="C20" s="6">
-        <v>1</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+      <c r="A21" s="5">
         <v>1401</v>
       </c>
-      <c r="B21" s="6">
-        <v>0</v>
-      </c>
-      <c r="C21" s="6">
-        <v>0</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+      <c r="A22" s="5">
         <v>1502</v>
       </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>0</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23">
         <v>20.5</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>20.5</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23">
         <v>21</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23">
         <v>21</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23">
         <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+      <c r="A24" s="5">
         <v>107</v>
       </c>
-      <c r="B24" s="6">
-        <v>1</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+      <c r="A25" s="5">
         <v>108</v>
       </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="6">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+      <c r="A26" s="5">
         <v>206</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26">
         <v>0.5</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>0.5</v>
       </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+      <c r="A27" s="5">
         <v>309</v>
       </c>
-      <c r="B27" s="6">
-        <v>1</v>
-      </c>
-      <c r="C27" s="6">
-        <v>1</v>
-      </c>
-      <c r="D27" s="6">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+      <c r="A28" s="5">
         <v>402</v>
       </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
+      <c r="A29" s="5">
         <v>520</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="D29" s="6">
-        <v>1</v>
-      </c>
-      <c r="E29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+      <c r="A30" s="5">
         <v>521</v>
       </c>
-      <c r="B30" s="6">
-        <v>1</v>
-      </c>
-      <c r="C30" s="6">
-        <v>1</v>
-      </c>
-      <c r="D30" s="6">
-        <v>1</v>
-      </c>
-      <c r="E30" s="6">
-        <v>1</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
+      <c r="A31" s="5">
         <v>610</v>
       </c>
-      <c r="B31" s="6">
-        <v>1</v>
-      </c>
-      <c r="C31" s="6">
-        <v>1</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+      <c r="A32" s="5">
         <v>710</v>
       </c>
-      <c r="B32" s="6">
-        <v>1</v>
-      </c>
-      <c r="C32" s="6">
-        <v>1</v>
-      </c>
-      <c r="D32" s="6">
-        <v>1</v>
-      </c>
-      <c r="E32" s="6">
-        <v>1</v>
-      </c>
-      <c r="F32" s="6">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+      <c r="A33" s="5">
         <v>815</v>
       </c>
-      <c r="B33" s="6">
-        <v>1</v>
-      </c>
-      <c r="C33" s="6">
-        <v>1</v>
-      </c>
-      <c r="D33" s="6">
-        <v>1</v>
-      </c>
-      <c r="E33" s="6">
-        <v>1</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+      <c r="A34" s="5">
         <v>901</v>
       </c>
-      <c r="B34" s="6">
-        <v>1</v>
-      </c>
-      <c r="C34" s="6">
-        <v>1</v>
-      </c>
-      <c r="D34" s="6">
-        <v>1</v>
-      </c>
-      <c r="E34" s="6">
-        <v>1</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
         <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+      <c r="A35" s="5">
         <v>1001</v>
       </c>
-      <c r="B35" s="6">
-        <v>1</v>
-      </c>
-      <c r="C35" s="6">
-        <v>1</v>
-      </c>
-      <c r="D35" s="6">
-        <v>1</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+      <c r="A36" s="5">
         <v>1115</v>
       </c>
-      <c r="B36" s="6">
-        <v>1</v>
-      </c>
-      <c r="C36" s="6">
-        <v>1</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
-      </c>
-      <c r="E36" s="6">
-        <v>1</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
         <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+      <c r="A37" s="5">
         <v>1210</v>
       </c>
-      <c r="B37" s="6">
-        <v>1</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1</v>
-      </c>
-      <c r="D37" s="6">
-        <v>1</v>
-      </c>
-      <c r="E37" s="6">
-        <v>1</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+      <c r="A38" s="5">
         <v>1301</v>
       </c>
-      <c r="B38" s="6">
-        <v>1</v>
-      </c>
-      <c r="C38" s="6">
-        <v>1</v>
-      </c>
-      <c r="D38" s="6">
-        <v>1</v>
-      </c>
-      <c r="E38" s="6">
-        <v>1</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+      <c r="A39" s="5">
         <v>1410</v>
       </c>
-      <c r="B39" s="6">
-        <v>1</v>
-      </c>
-      <c r="C39" s="6">
-        <v>1</v>
-      </c>
-      <c r="D39" s="6">
-        <v>1</v>
-      </c>
-      <c r="E39" s="6">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
         <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+      <c r="A40" s="5">
         <v>1510</v>
       </c>
-      <c r="B40" s="6">
-        <v>1</v>
-      </c>
-      <c r="C40" s="6">
-        <v>1</v>
-      </c>
-      <c r="D40" s="6">
-        <v>1</v>
-      </c>
-      <c r="E40" s="6">
-        <v>1</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
         <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+      <c r="A41" s="5">
         <v>1601</v>
       </c>
-      <c r="B41" s="6">
-        <v>1</v>
-      </c>
-      <c r="C41" s="6">
-        <v>1</v>
-      </c>
-      <c r="D41" s="6">
-        <v>1</v>
-      </c>
-      <c r="E41" s="6">
-        <v>1</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+      <c r="A42" s="5">
         <v>1701</v>
       </c>
-      <c r="B42" s="6">
-        <v>1</v>
-      </c>
-      <c r="C42" s="6">
-        <v>1</v>
-      </c>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
         <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
+      <c r="A43" s="5">
         <v>1801</v>
       </c>
-      <c r="B43" s="6">
-        <v>1</v>
-      </c>
-      <c r="C43" s="6">
-        <v>1</v>
-      </c>
-      <c r="D43" s="6">
-        <v>1</v>
-      </c>
-      <c r="E43" s="6">
-        <v>1</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
         <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+      <c r="A44" s="5">
         <v>1901</v>
       </c>
-      <c r="B44" s="6">
-        <v>1</v>
-      </c>
-      <c r="C44" s="6">
-        <v>1</v>
-      </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
         <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45">
         <v>20</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45">
         <v>10</v>
       </c>
-      <c r="D45" s="6">
+      <c r="D45">
         <v>16.5</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45">
         <v>21</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45">
         <v>67.5</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+      <c r="A46" s="5">
         <v>102</v>
       </c>
-      <c r="B46" s="6">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6">
-        <v>1</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="6">
-        <v>1</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
+      <c r="A47" s="5">
         <v>203</v>
       </c>
-      <c r="B47" s="6">
-        <v>1</v>
-      </c>
-      <c r="C47" s="6">
-        <v>1</v>
-      </c>
-      <c r="D47" s="6">
-        <v>1</v>
-      </c>
-      <c r="E47" s="6">
-        <v>1</v>
-      </c>
-      <c r="F47" s="6">
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+      <c r="A48" s="5">
         <v>301</v>
       </c>
-      <c r="B48" s="6">
-        <v>1</v>
-      </c>
-      <c r="C48" s="6">
-        <v>1</v>
-      </c>
-      <c r="D48" s="6">
-        <v>1</v>
-      </c>
-      <c r="E48" s="6">
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
         <v>0.5</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48">
         <v>3.5</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
+      <c r="A49" s="5">
         <v>302</v>
       </c>
-      <c r="B49" s="6">
-        <v>1</v>
-      </c>
-      <c r="C49" s="6">
-        <v>0</v>
-      </c>
-      <c r="D49" s="6">
-        <v>1</v>
-      </c>
-      <c r="E49" s="6">
-        <v>1</v>
-      </c>
-      <c r="F49" s="6">
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+      <c r="A50" s="5">
         <v>303</v>
       </c>
-      <c r="B50" s="6">
-        <v>1</v>
-      </c>
-      <c r="C50" s="6">
-        <v>1</v>
-      </c>
-      <c r="D50" s="6">
-        <v>1</v>
-      </c>
-      <c r="E50" s="6">
-        <v>1</v>
-      </c>
-      <c r="F50" s="6">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
         <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
+      <c r="A51" s="5">
         <v>304</v>
       </c>
-      <c r="B51" s="6">
-        <v>1</v>
-      </c>
-      <c r="C51" s="6">
-        <v>1</v>
-      </c>
-      <c r="D51" s="6">
-        <v>1</v>
-      </c>
-      <c r="E51" s="6">
-        <v>1</v>
-      </c>
-      <c r="F51" s="6">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+      <c r="A52" s="5">
         <v>305</v>
       </c>
-      <c r="B52" s="6">
-        <v>1</v>
-      </c>
-      <c r="C52" s="6">
-        <v>1</v>
-      </c>
-      <c r="D52" s="6">
-        <v>0</v>
-      </c>
-      <c r="E52" s="6">
-        <v>1</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
+      <c r="A53" s="5">
         <v>502</v>
       </c>
-      <c r="B53" s="6">
-        <v>1</v>
-      </c>
-      <c r="C53" s="6">
-        <v>0</v>
-      </c>
-      <c r="D53" s="6">
-        <v>1</v>
-      </c>
-      <c r="E53" s="6">
-        <v>1</v>
-      </c>
-      <c r="F53" s="6">
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
+      <c r="A54" s="5">
         <v>602</v>
       </c>
-      <c r="B54" s="6">
-        <v>1</v>
-      </c>
-      <c r="C54" s="6">
-        <v>1</v>
-      </c>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
         <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
+      <c r="A55" s="5">
         <v>603</v>
       </c>
-      <c r="B55" s="6">
-        <v>1</v>
-      </c>
-      <c r="C55" s="6">
-        <v>1</v>
-      </c>
-      <c r="D55" s="6">
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
         <v>0.5</v>
       </c>
-      <c r="E55" s="6">
-        <v>1</v>
-      </c>
-      <c r="F55" s="6">
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
         <v>3.5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
+      <c r="A56" s="5">
         <v>604</v>
       </c>
-      <c r="B56" s="6">
-        <v>1</v>
-      </c>
-      <c r="C56" s="6">
-        <v>0</v>
-      </c>
-      <c r="D56" s="6">
-        <v>0</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
+      <c r="A57" s="5">
         <v>701</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57">
         <v>0.5</v>
       </c>
-      <c r="C57" s="6">
-        <v>1</v>
-      </c>
-      <c r="D57" s="6">
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
         <v>0.5</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57">
         <v>0.5</v>
       </c>
-      <c r="F57" s="6">
+      <c r="F57">
         <v>2.5</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
+      <c r="A58" s="5">
         <v>705</v>
       </c>
-      <c r="B58" s="6">
-        <v>1</v>
-      </c>
-      <c r="C58" s="6">
-        <v>1</v>
-      </c>
-      <c r="D58" s="6">
-        <v>0</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1</v>
-      </c>
-      <c r="F58" s="6">
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
+      <c r="A59" s="5">
         <v>802</v>
       </c>
-      <c r="B59" s="6">
-        <v>1</v>
-      </c>
-      <c r="C59" s="6">
-        <v>0</v>
-      </c>
-      <c r="D59" s="6">
-        <v>0</v>
-      </c>
-      <c r="E59" s="6">
-        <v>1</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
         <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
+      <c r="A60" s="5">
         <v>803</v>
       </c>
-      <c r="B60" s="6">
-        <v>1</v>
-      </c>
-      <c r="C60" s="6">
-        <v>0</v>
-      </c>
-      <c r="D60" s="6">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>0.5</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60">
         <v>0.5</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
+      <c r="A61" s="5">
         <v>807</v>
       </c>
-      <c r="B61" s="6">
-        <v>1</v>
-      </c>
-      <c r="C61" s="6">
-        <v>0</v>
-      </c>
-      <c r="D61" s="6">
-        <v>0</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
+      <c r="A62" s="5">
         <v>808</v>
       </c>
-      <c r="B62" s="6">
-        <v>1</v>
-      </c>
-      <c r="C62" s="6">
-        <v>0</v>
-      </c>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1</v>
-      </c>
-      <c r="F62" s="6">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
+      <c r="A63" s="5">
         <v>809</v>
       </c>
-      <c r="B63" s="6">
-        <v>1</v>
-      </c>
-      <c r="C63" s="6">
-        <v>0</v>
-      </c>
-      <c r="D63" s="6">
-        <v>1</v>
-      </c>
-      <c r="E63" s="6">
-        <v>1</v>
-      </c>
-      <c r="F63" s="6">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="7">
+      <c r="A64" s="5">
         <v>1103</v>
       </c>
-      <c r="B64" s="6">
-        <v>0</v>
-      </c>
-      <c r="C64" s="6">
-        <v>0</v>
-      </c>
-      <c r="D64" s="6">
-        <v>1</v>
-      </c>
-      <c r="E64" s="6">
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
         <v>0.5</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64">
         <v>1.5</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="7">
+      <c r="A65" s="5">
         <v>1105</v>
       </c>
-      <c r="B65" s="6">
-        <v>0</v>
-      </c>
-      <c r="C65" s="6">
-        <v>0</v>
-      </c>
-      <c r="D65" s="6">
-        <v>1</v>
-      </c>
-      <c r="E65" s="6">
-        <v>1</v>
-      </c>
-      <c r="F65" s="6">
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="7">
+      <c r="A66" s="5">
         <v>1106</v>
       </c>
-      <c r="B66" s="6">
-        <v>1</v>
-      </c>
-      <c r="C66" s="6">
-        <v>0</v>
-      </c>
-      <c r="D66" s="6">
-        <v>1</v>
-      </c>
-      <c r="E66" s="6">
-        <v>1</v>
-      </c>
-      <c r="F66" s="6">
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
         <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="7">
+      <c r="A67" s="5">
         <v>1107</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67">
         <v>0.5</v>
       </c>
-      <c r="C67" s="6">
-        <v>0</v>
-      </c>
-      <c r="D67" s="6">
-        <v>1</v>
-      </c>
-      <c r="E67" s="6">
-        <v>1</v>
-      </c>
-      <c r="F67" s="6">
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
         <v>2.5</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
+      <c r="A68" s="5">
         <v>1109</v>
       </c>
-      <c r="B68" s="6">
-        <v>1</v>
-      </c>
-      <c r="C68" s="6">
-        <v>0</v>
-      </c>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6">
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
         <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
+      <c r="A69" s="5">
         <v>1503</v>
       </c>
-      <c r="B69" s="6">
-        <v>0</v>
-      </c>
-      <c r="C69" s="6">
-        <v>0</v>
-      </c>
-      <c r="D69" s="6">
-        <v>0</v>
-      </c>
-      <c r="E69" s="6">
-        <v>0</v>
-      </c>
-      <c r="F69" s="6">
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70">
         <v>12</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70">
         <v>6</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70">
         <v>8</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70">
         <v>13</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70">
         <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="7">
+      <c r="A71" s="5">
         <v>103</v>
       </c>
-      <c r="B71" s="6">
-        <v>1</v>
-      </c>
-      <c r="C71" s="6">
-        <v>0</v>
-      </c>
-      <c r="D71" s="6">
-        <v>0</v>
-      </c>
-      <c r="E71" s="6">
-        <v>1</v>
-      </c>
-      <c r="F71" s="6">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="7">
+      <c r="A72" s="5">
         <v>104</v>
       </c>
-      <c r="B72" s="6">
-        <v>1</v>
-      </c>
-      <c r="C72" s="6">
-        <v>0</v>
-      </c>
-      <c r="D72" s="6">
-        <v>1</v>
-      </c>
-      <c r="E72" s="6">
-        <v>1</v>
-      </c>
-      <c r="F72" s="6">
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
+      <c r="A73" s="5">
         <v>204</v>
       </c>
-      <c r="B73" s="6">
-        <v>1</v>
-      </c>
-      <c r="C73" s="6">
-        <v>1</v>
-      </c>
-      <c r="D73" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
         <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
+      <c r="A74" s="5">
         <v>601</v>
       </c>
-      <c r="B74" s="6">
-        <v>1</v>
-      </c>
-      <c r="C74" s="6">
-        <v>1</v>
-      </c>
-      <c r="D74" s="6">
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
         <v>0.5</v>
       </c>
-      <c r="E74" s="6">
-        <v>1</v>
-      </c>
-      <c r="F74" s="6">
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
         <v>3.5</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
+      <c r="A75" s="5">
         <v>605</v>
       </c>
-      <c r="B75" s="6">
-        <v>0</v>
-      </c>
-      <c r="C75" s="6">
-        <v>0</v>
-      </c>
-      <c r="D75" s="6">
-        <v>0</v>
-      </c>
-      <c r="E75" s="6">
-        <v>0</v>
-      </c>
-      <c r="F75" s="6">
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
+      <c r="A76" s="5">
         <v>606</v>
       </c>
-      <c r="B76" s="6">
-        <v>1</v>
-      </c>
-      <c r="C76" s="6">
-        <v>1</v>
-      </c>
-      <c r="D76" s="6">
-        <v>1</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1</v>
-      </c>
-      <c r="F76" s="6">
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
         <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
+      <c r="A77" s="5">
         <v>607</v>
       </c>
-      <c r="B77" s="6">
-        <v>1</v>
-      </c>
-      <c r="C77" s="6">
-        <v>1</v>
-      </c>
-      <c r="D77" s="6">
-        <v>1</v>
-      </c>
-      <c r="E77" s="6">
-        <v>1</v>
-      </c>
-      <c r="F77" s="6">
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
         <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
+      <c r="A78" s="5">
         <v>704</v>
       </c>
-      <c r="B78" s="6">
-        <v>1</v>
-      </c>
-      <c r="C78" s="6">
-        <v>0</v>
-      </c>
-      <c r="D78" s="6">
-        <v>0</v>
-      </c>
-      <c r="E78" s="6">
-        <v>1</v>
-      </c>
-      <c r="F78" s="6">
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
+      <c r="A79" s="5">
         <v>706</v>
       </c>
-      <c r="B79" s="6">
-        <v>1</v>
-      </c>
-      <c r="C79" s="6">
-        <v>1</v>
-      </c>
-      <c r="D79" s="6">
-        <v>1</v>
-      </c>
-      <c r="E79" s="6">
-        <v>1</v>
-      </c>
-      <c r="F79" s="6">
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
         <v>4</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
+      <c r="A80" s="5">
         <v>801</v>
       </c>
-      <c r="B80" s="6">
-        <v>1</v>
-      </c>
-      <c r="C80" s="6">
-        <v>1</v>
-      </c>
-      <c r="D80" s="6">
-        <v>0</v>
-      </c>
-      <c r="E80" s="6">
-        <v>1</v>
-      </c>
-      <c r="F80" s="6">
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
         <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
+      <c r="A81" s="5">
         <v>804</v>
       </c>
-      <c r="B81" s="6">
-        <v>0</v>
-      </c>
-      <c r="C81" s="6">
-        <v>0</v>
-      </c>
-      <c r="D81" s="6">
-        <v>1</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
+      <c r="A82" s="5">
         <v>805</v>
       </c>
-      <c r="B82" s="6">
-        <v>1</v>
-      </c>
-      <c r="C82" s="6">
-        <v>0</v>
-      </c>
-      <c r="D82" s="6">
-        <v>1</v>
-      </c>
-      <c r="E82" s="6">
-        <v>1</v>
-      </c>
-      <c r="F82" s="6">
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
         <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
+      <c r="A83" s="5">
         <v>806</v>
       </c>
-      <c r="B83" s="6">
-        <v>1</v>
-      </c>
-      <c r="C83" s="6">
-        <v>0</v>
-      </c>
-      <c r="D83" s="6">
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
         <v>0.5</v>
       </c>
-      <c r="E83" s="6">
-        <v>1</v>
-      </c>
-      <c r="F83" s="6">
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
         <v>2.5</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
+      <c r="A84" s="5">
         <v>1104</v>
       </c>
-      <c r="B84" s="6">
-        <v>0</v>
-      </c>
-      <c r="C84" s="6">
-        <v>0</v>
-      </c>
-      <c r="D84" s="6">
-        <v>0</v>
-      </c>
-      <c r="E84" s="6">
-        <v>0</v>
-      </c>
-      <c r="F84" s="6">
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
+      <c r="A85" s="5">
         <v>1110</v>
       </c>
-      <c r="B85" s="6">
-        <v>1</v>
-      </c>
-      <c r="C85" s="6">
-        <v>0</v>
-      </c>
-      <c r="D85" s="6">
-        <v>0</v>
-      </c>
-      <c r="E85" s="6">
-        <v>1</v>
-      </c>
-      <c r="F85" s="6">
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
         <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86">
         <v>68</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86">
         <v>47</v>
       </c>
-      <c r="D86" s="6">
+      <c r="D86">
         <v>58</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86">
         <v>70.5</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86">
         <v>243.5</v>
       </c>
     </row>
@@ -10724,7 +10729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7BE243B-87B0-4835-9768-C06DE57176EB}">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -10738,7 +10743,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>376</v>
       </c>
       <c r="B3" t="s">
@@ -10755,87 +10760,87 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>5.4038961038961038</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>12.222597402597399</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>0.21097402597402598</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>0.36670129870129864</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>19142.374675324678</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>134.08285714285711</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>1.051181818181818</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>2.6713246753246751</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>6045.738831168831</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>28.709480519480525</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>0.3155389610389609</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>0.75950649350649346</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>6297.0283766233761</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>45.10470779220779</v>
       </c>
     </row>
@@ -10848,8 +10853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O309"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10864,55 +10869,55 @@
     <col min="9" max="9" width="10.26953125" customWidth="1"/>
     <col min="10" max="10" width="10.81640625" customWidth="1"/>
     <col min="11" max="11" width="10.1796875" customWidth="1"/>
-    <col min="12" max="12" width="15.1796875" customWidth="1"/>
+    <col min="12" max="12" width="255.6328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.1796875" customWidth="1"/>
     <col min="14" max="14" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -13398,7 +13403,7 @@
         <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="N54" t="s">
         <v>63</v>
@@ -13445,7 +13450,7 @@
         <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="N55" t="s">
         <v>63</v>
@@ -13492,7 +13497,7 @@
         <v>92</v>
       </c>
       <c r="M56" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="N56" t="s">
         <v>63</v>
@@ -13539,7 +13544,7 @@
         <v>93</v>
       </c>
       <c r="M57" t="s">
-        <v>36</v>
+        <v>391</v>
       </c>
       <c r="N57" t="s">
         <v>63</v>
@@ -25418,18 +25423,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -25591,6 +25596,1733 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
+    <col min="6" max="6" width="163.08984375" customWidth="1"/>
+    <col min="7" max="7" width="139.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>201</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>202</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>206</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>301</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>302</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>305</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>401</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>502</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>601</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>603</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>170</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>604</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>604</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>605</v>
+      </c>
+      <c r="B20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>181</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>605</v>
+      </c>
+      <c r="B21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>605</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>605</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="174" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>701</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24">
+        <v>0.5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>701</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" t="s">
+        <v>201</v>
+      </c>
+      <c r="G25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>701</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>702</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>702</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" t="s">
+        <v>207</v>
+      </c>
+      <c r="G28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>702</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>704</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>704</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>216</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>705</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F32" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>801</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>233</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>802</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>240</v>
+      </c>
+      <c r="F34" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>802</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F35" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>803</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>803</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>245</v>
+      </c>
+      <c r="F37" t="s">
+        <v>248</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>803</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>245</v>
+      </c>
+      <c r="F38" t="s">
+        <v>249</v>
+      </c>
+      <c r="G38" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>804</v>
+      </c>
+      <c r="B39" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>250</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>804</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>250</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>805</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>254</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>806</v>
+      </c>
+      <c r="B42" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>806</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F43" t="s">
+        <v>262</v>
+      </c>
+      <c r="G43" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>807</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>807</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>267</v>
+      </c>
+      <c r="G45" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>808</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>809</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>275</v>
+      </c>
+      <c r="F47" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>286</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>297</v>
+      </c>
+      <c r="F50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>297</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1103</v>
+      </c>
+      <c r="B52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>297</v>
+      </c>
+      <c r="F52" t="s">
+        <v>301</v>
+      </c>
+      <c r="G52" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>302</v>
+      </c>
+      <c r="F53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1104</v>
+      </c>
+      <c r="B54" t="s">
+        <v>32</v>
+      </c>
+      <c r="C54" t="s">
+        <v>21</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>302</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>302</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>302</v>
+      </c>
+      <c r="F56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1105</v>
+      </c>
+      <c r="B58" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>304</v>
+      </c>
+      <c r="F58" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1106</v>
+      </c>
+      <c r="B59" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1107</v>
+      </c>
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>314</v>
+      </c>
+      <c r="F60" t="s">
+        <v>315</v>
+      </c>
+      <c r="G60" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>314</v>
+      </c>
+      <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1109</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" t="s">
+        <v>21</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>327</v>
+      </c>
+      <c r="F62" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>332</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>332</v>
+      </c>
+      <c r="F64" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1401</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>349</v>
+      </c>
+      <c r="F65" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1401</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>349</v>
+      </c>
+      <c r="F66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1401</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1401</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>349</v>
+      </c>
+      <c r="F68" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1502</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" t="s">
+        <v>21</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>354</v>
+      </c>
+      <c r="F69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1502</v>
+      </c>
+      <c r="B70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>354</v>
+      </c>
+      <c r="F70" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1503</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>359</v>
+      </c>
+      <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1503</v>
+      </c>
+      <c r="B72" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>359</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1503</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>359</v>
+      </c>
+      <c r="F73" t="s">
+        <v>362</v>
+      </c>
+      <c r="G73" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1503</v>
+      </c>
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>359</v>
+      </c>
+      <c r="F74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
@@ -25606,21 +27338,21 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -25793,1731 +27525,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G74"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:F56"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="137.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="255.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>103</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>103</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>104</v>
-      </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>201</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>202</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>202</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>202</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" t="s">
-        <v>71</v>
-      </c>
-      <c r="G8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>206</v>
-      </c>
-      <c r="B9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>206</v>
-      </c>
-      <c r="B10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>301</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>302</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-      <c r="F12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>305</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>119</v>
-      </c>
-      <c r="F13" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>401</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>502</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>147</v>
-      </c>
-      <c r="F15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>601</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16">
-        <v>0.5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>603</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17">
-        <v>0.5</v>
-      </c>
-      <c r="E17" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" t="s">
-        <v>175</v>
-      </c>
-      <c r="G17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>604</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>177</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>604</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>177</v>
-      </c>
-      <c r="F19" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>605</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>605</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>181</v>
-      </c>
-      <c r="F21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>605</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>605</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>181</v>
-      </c>
-      <c r="F23" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>701</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24">
-        <v>0.5</v>
-      </c>
-      <c r="E24" t="s">
-        <v>196</v>
-      </c>
-      <c r="F24" t="s">
-        <v>197</v>
-      </c>
-      <c r="G24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>701</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
-      </c>
-      <c r="E25" t="s">
-        <v>196</v>
-      </c>
-      <c r="F25" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>701</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26">
-        <v>0.5</v>
-      </c>
-      <c r="E26" t="s">
-        <v>196</v>
-      </c>
-      <c r="F26" t="s">
-        <v>202</v>
-      </c>
-      <c r="G26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>702</v>
-      </c>
-      <c r="B27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>203</v>
-      </c>
-      <c r="F27" t="s">
-        <v>207</v>
-      </c>
-      <c r="G27" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>702</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>203</v>
-      </c>
-      <c r="F28" t="s">
-        <v>206</v>
-      </c>
-      <c r="G28" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>702</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29">
-        <v>0.5</v>
-      </c>
-      <c r="E29" t="s">
-        <v>203</v>
-      </c>
-      <c r="F29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G29" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>704</v>
-      </c>
-      <c r="B30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>216</v>
-      </c>
-      <c r="F30" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>704</v>
-      </c>
-      <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31" t="s">
-        <v>216</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>705</v>
-      </c>
-      <c r="B32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>220</v>
-      </c>
-      <c r="F32" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>801</v>
-      </c>
-      <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33" t="s">
-        <v>233</v>
-      </c>
-      <c r="F33" t="s">
-        <v>238</v>
-      </c>
-      <c r="G33" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>802</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>240</v>
-      </c>
-      <c r="F34" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>802</v>
-      </c>
-      <c r="B35" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35" t="s">
-        <v>240</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
-      </c>
-      <c r="G35" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>803</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36" t="s">
-        <v>245</v>
-      </c>
-      <c r="F36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>803</v>
-      </c>
-      <c r="B37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C37" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37">
-        <v>0.5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>245</v>
-      </c>
-      <c r="F37" t="s">
-        <v>249</v>
-      </c>
-      <c r="G37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>803</v>
-      </c>
-      <c r="B38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38">
-        <v>0.5</v>
-      </c>
-      <c r="E38" t="s">
-        <v>245</v>
-      </c>
-      <c r="F38" t="s">
-        <v>248</v>
-      </c>
-      <c r="G38" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>804</v>
-      </c>
-      <c r="B39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>250</v>
-      </c>
-      <c r="F39" t="s">
-        <v>36</v>
-      </c>
-      <c r="G39" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>804</v>
-      </c>
-      <c r="B40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>250</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>805</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>254</v>
-      </c>
-      <c r="F41" t="s">
-        <v>36</v>
-      </c>
-      <c r="G41" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>806</v>
-      </c>
-      <c r="B42" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>259</v>
-      </c>
-      <c r="F42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>806</v>
-      </c>
-      <c r="B43" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43">
-        <v>0.5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>259</v>
-      </c>
-      <c r="F43" t="s">
-        <v>262</v>
-      </c>
-      <c r="G43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>807</v>
-      </c>
-      <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" t="s">
-        <v>267</v>
-      </c>
-      <c r="G44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>807</v>
-      </c>
-      <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>264</v>
-      </c>
-      <c r="F45" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>808</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46" t="s">
-        <v>269</v>
-      </c>
-      <c r="F46" t="s">
-        <v>36</v>
-      </c>
-      <c r="G46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>809</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s">
-        <v>21</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47" t="s">
-        <v>275</v>
-      </c>
-      <c r="F47" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>1101</v>
-      </c>
-      <c r="B48" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" t="s">
-        <v>21</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48" t="s">
-        <v>286</v>
-      </c>
-      <c r="F48" t="s">
-        <v>36</v>
-      </c>
-      <c r="G48" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>1101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49" t="s">
-        <v>286</v>
-      </c>
-      <c r="F49" t="s">
-        <v>36</v>
-      </c>
-      <c r="G49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>1103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>297</v>
-      </c>
-      <c r="F50" t="s">
-        <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>1103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>1103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>25</v>
-      </c>
-      <c r="C52" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>0.5</v>
-      </c>
-      <c r="E52" t="s">
-        <v>297</v>
-      </c>
-      <c r="F52" t="s">
-        <v>301</v>
-      </c>
-      <c r="G52" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>1104</v>
-      </c>
-      <c r="B53" t="s">
-        <v>32</v>
-      </c>
-      <c r="C53" t="s">
-        <v>21</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53" t="s">
-        <v>302</v>
-      </c>
-      <c r="F53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>1104</v>
-      </c>
-      <c r="B54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>302</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>1104</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
-        <v>302</v>
-      </c>
-      <c r="F55" t="s">
-        <v>36</v>
-      </c>
-      <c r="G55" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>1104</v>
-      </c>
-      <c r="B56" t="s">
-        <v>32</v>
-      </c>
-      <c r="C56" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>302</v>
-      </c>
-      <c r="F56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G56" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>1105</v>
-      </c>
-      <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>304</v>
-      </c>
-      <c r="F57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G57" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>1105</v>
-      </c>
-      <c r="B58" t="s">
-        <v>25</v>
-      </c>
-      <c r="C58" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>304</v>
-      </c>
-      <c r="F58" t="s">
-        <v>36</v>
-      </c>
-      <c r="G58" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>1106</v>
-      </c>
-      <c r="B59" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>309</v>
-      </c>
-      <c r="F59" t="s">
-        <v>36</v>
-      </c>
-      <c r="G59" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>1107</v>
-      </c>
-      <c r="B60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>314</v>
-      </c>
-      <c r="F60" t="s">
-        <v>36</v>
-      </c>
-      <c r="G60" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>1107</v>
-      </c>
-      <c r="B61" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" t="s">
-        <v>16</v>
-      </c>
-      <c r="D61">
-        <v>0.5</v>
-      </c>
-      <c r="E61" t="s">
-        <v>314</v>
-      </c>
-      <c r="F61" t="s">
-        <v>315</v>
-      </c>
-      <c r="G61" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>1109</v>
-      </c>
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" t="s">
-        <v>21</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>327</v>
-      </c>
-      <c r="F62" t="s">
-        <v>36</v>
-      </c>
-      <c r="G62" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>1110</v>
-      </c>
-      <c r="B63" t="s">
-        <v>32</v>
-      </c>
-      <c r="C63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
-      </c>
-      <c r="E63" t="s">
-        <v>332</v>
-      </c>
-      <c r="F63" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>1110</v>
-      </c>
-      <c r="B64" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>332</v>
-      </c>
-      <c r="F64" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>1401</v>
-      </c>
-      <c r="B65" t="s">
-        <v>15</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
-      </c>
-      <c r="E65" t="s">
-        <v>349</v>
-      </c>
-      <c r="F65" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>1401</v>
-      </c>
-      <c r="B66" t="s">
-        <v>15</v>
-      </c>
-      <c r="C66" t="s">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>349</v>
-      </c>
-      <c r="F66" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>1401</v>
-      </c>
-      <c r="B67" t="s">
-        <v>15</v>
-      </c>
-      <c r="C67" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>349</v>
-      </c>
-      <c r="F67" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>1401</v>
-      </c>
-      <c r="B68" t="s">
-        <v>15</v>
-      </c>
-      <c r="C68" t="s">
-        <v>16</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>349</v>
-      </c>
-      <c r="F68" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>1502</v>
-      </c>
-      <c r="B69" t="s">
-        <v>15</v>
-      </c>
-      <c r="C69" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69" t="s">
-        <v>354</v>
-      </c>
-      <c r="F69" t="s">
-        <v>36</v>
-      </c>
-      <c r="G69" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>1502</v>
-      </c>
-      <c r="B70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C70" t="s">
-        <v>21</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
-      </c>
-      <c r="E70" t="s">
-        <v>354</v>
-      </c>
-      <c r="F70" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>1503</v>
-      </c>
-      <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
-      </c>
-      <c r="E71" t="s">
-        <v>359</v>
-      </c>
-      <c r="F71" t="s">
-        <v>362</v>
-      </c>
-      <c r="G71" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>1503</v>
-      </c>
-      <c r="B72" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>359</v>
-      </c>
-      <c r="F72" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>1503</v>
-      </c>
-      <c r="B73" t="s">
-        <v>25</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73" t="s">
-        <v>359</v>
-      </c>
-      <c r="F73" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>1503</v>
-      </c>
-      <c r="B74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>359</v>
-      </c>
-      <c r="F74" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" t="s">
-        <v>360</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>